--- a/test/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/test/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T11:24:43+00:00</t>
+    <t>2025-03-24T13:17:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/test/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T13:17:27+00:00</t>
+    <t>2025-03-24T13:51:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/test/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T13:51:05+00:00</t>
+    <t>2025-03-24T16:44:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
